--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_5.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_5.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Họ tên</t>
   </si>
@@ -32,28 +32,49 @@
     <t>Điểm</t>
   </si>
   <si>
-    <t xml:space="preserve">Thành  Hậu</t>
-  </si>
-  <si>
-    <t>haupham809@gmail.com</t>
+    <t>Nguyễn Văn Kha</t>
+  </si>
+  <si>
+    <t>2@gmail.com</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>12:03:00 12/10/2022</t>
+    <t>10:34:00 28/06/2023</t>
   </si>
   <si>
     <t>Chưa Nộp</t>
   </si>
   <si>
-    <t>haupham2@gmail.com</t>
-  </si>
-  <si>
-    <t>haupham3@gmail.com</t>
-  </si>
-  <si>
-    <t>haupham4@gmail.com</t>
+    <t>Nguyễn Văn Phụng</t>
+  </si>
+  <si>
+    <t>5@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Sang</t>
+  </si>
+  <si>
+    <t>6@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Sương</t>
+  </si>
+  <si>
+    <t>7@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thế</t>
+  </si>
+  <si>
+    <t>3@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Việt</t>
+  </si>
+  <si>
+    <t>4@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -122,14 +143,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.521821975708" customWidth="1"/>
-    <col min="2" max="2" width="33.9146766662598" customWidth="1"/>
+    <col min="1" max="1" width="25.4295558929443" customWidth="1"/>
+    <col min="2" max="2" width="18.6245002746582" customWidth="1"/>
     <col min="3" max="3" width="13.1066436767578" customWidth="1"/>
     <col min="4" max="4" width="28.1006889343262" customWidth="1"/>
     <col min="5" max="5" width="13.9027738571167" customWidth="1"/>
@@ -178,10 +199,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -198,10 +219,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -218,10 +239,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -233,6 +254,46 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_5.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_5.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Họ tên</t>
   </si>
@@ -38,43 +38,61 @@
     <t>2@gmail.com</t>
   </si>
   <si>
+    <t>10:35:36 27/06/2023</t>
+  </si>
+  <si>
+    <t>10:34:00 28/06/2023</t>
+  </si>
+  <si>
+    <t>Đã nộp</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>10:34:00 28/06/2023</t>
-  </si>
-  <si>
-    <t>Chưa Nộp</t>
-  </si>
-  <si>
     <t>Nguyễn Văn Phụng</t>
   </si>
   <si>
     <t>5@gmail.com</t>
   </si>
   <si>
+    <t>10:36:34 27/06/2023</t>
+  </si>
+  <si>
     <t>Nguyễn Văn Sang</t>
   </si>
   <si>
     <t>6@gmail.com</t>
   </si>
   <si>
+    <t>10:39:43 27/06/2023</t>
+  </si>
+  <si>
     <t>Nguyễn Văn Sương</t>
   </si>
   <si>
     <t>7@gmail.com</t>
   </si>
   <si>
+    <t>10:39:58 27/06/2023</t>
+  </si>
+  <si>
     <t>Nguyễn Văn Thế</t>
   </si>
   <si>
     <t>3@gmail.com</t>
   </si>
   <si>
+    <t>10:35:58 27/06/2023</t>
+  </si>
+  <si>
     <t>Nguyễn Văn Việt</t>
   </si>
   <si>
     <t>4@gmail.com</t>
+  </si>
+  <si>
+    <t>10:36:11 27/06/2023</t>
   </si>
 </sst>
 </file>
@@ -82,7 +100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -95,11 +113,6 @@
     <font>
       <sz val="16"/>
       <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000" tint="0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -128,11 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,7 +163,7 @@
   <cols>
     <col min="1" max="1" width="25.4295558929443" customWidth="1"/>
     <col min="2" max="2" width="18.6245002746582" customWidth="1"/>
-    <col min="3" max="3" width="13.1066436767578" customWidth="1"/>
+    <col min="3" max="3" width="28.1006889343262" customWidth="1"/>
     <col min="4" max="4" width="28.1006889343262" customWidth="1"/>
     <col min="5" max="5" width="13.9027738571167" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
@@ -190,111 +202,111 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
